--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>monsterId</t>
   </si>
@@ -43,10 +43,46 @@
     <t>attack</t>
   </si>
   <si>
-    <t>豺狼怪兽</t>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>dropObject</t>
   </si>
   <si>
     <t>野猪</t>
+  </si>
+  <si>
+    <t>1001,1002</t>
+  </si>
+  <si>
+    <t>土狗</t>
+  </si>
+  <si>
+    <t>1003,1004</t>
+  </si>
+  <si>
+    <t>豺狼</t>
+  </si>
+  <si>
+    <t>1005,1006</t>
+  </si>
+  <si>
+    <t>猎豹</t>
+  </si>
+  <si>
+    <t>1007,1008</t>
+  </si>
+  <si>
+    <t>猛虎</t>
+  </si>
+  <si>
+    <t>1009,1010</t>
+  </si>
+  <si>
+    <t>雄狮</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
 </sst>
 </file>
@@ -54,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,67 +105,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,8 +147,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,15 +171,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,39 +209,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,19 +257,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,163 +395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,10 +468,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -458,17 +492,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -485,6 +512,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,8 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,138 +566,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -981,20 +1018,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="11" max="11" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,13 +1060,19 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1046,15 +1090,21 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1066,13 +1116,123 @@
         <v>2</v>
       </c>
       <c r="G3">
+        <v>150</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="H3">
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>250</v>
+      </c>
+      <c r="H5">
+        <v>250</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>250</v>
+      </c>
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="I3">
-        <v>5</v>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>350</v>
+      </c>
+      <c r="H7">
+        <v>350</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <v>120</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>sceneId</t>
+    <t>mapId</t>
   </si>
   <si>
     <t>x</t>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,41 +101,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +112,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -156,24 +180,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,30 +202,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -216,33 +241,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,30 +462,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,8 +495,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,8 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,14 +1021,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.22222222222222" customWidth="1"/>
     <col min="11" max="11" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1077,6 +1077,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>2001</v>
+      </c>
       <c r="E2">
         <v>2</v>
       </c>
@@ -1109,6 +1112,9 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>2001</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -1141,6 +1147,15 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>2002</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
       <c r="G4">
         <v>200</v>
       </c>
@@ -1167,6 +1182,15 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>2002</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
       <c r="G5">
         <v>250</v>
       </c>
@@ -1193,6 +1217,15 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>2003</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
       <c r="G6">
         <v>300</v>
       </c>
@@ -1218,6 +1251,15 @@
       </c>
       <c r="C7">
         <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2003</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="G7">
         <v>350</v>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>monsterId</t>
   </si>
@@ -49,40 +49,61 @@
     <t>dropObject</t>
   </si>
   <si>
+    <t>attrs</t>
+  </si>
+  <si>
     <t>野猪</t>
   </si>
   <si>
     <t>1001,1002</t>
   </si>
   <si>
+    <t>[{"type": "HP","value": 100},{"type": "ATTACK","value": 70}]</t>
+  </si>
+  <si>
     <t>土狗</t>
   </si>
   <si>
     <t>1003,1004</t>
   </si>
   <si>
+    <t>[{"type": "HP","value": 150},{"type": "ATTACK","value": 80}]</t>
+  </si>
+  <si>
     <t>豺狼</t>
   </si>
   <si>
     <t>1005,1006</t>
   </si>
   <si>
+    <t>[{"type": "HP","value": 200},{"type": "ATTACK","value": 90}]</t>
+  </si>
+  <si>
     <t>猎豹</t>
   </si>
   <si>
     <t>1007,1008</t>
   </si>
   <si>
+    <t>[{"type": "HP","value": 250},{"type": "ATTACK","value": 100}]</t>
+  </si>
+  <si>
     <t>猛虎</t>
   </si>
   <si>
     <t>1009,1010</t>
   </si>
   <si>
+    <t>[{"type": "HP","value": 300},{"type": "ATTACK","value": 110}]</t>
+  </si>
+  <si>
     <t>雄狮</t>
   </si>
   <si>
     <t>2001</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": 350},{"type": "ATTACK","value": 120}]</t>
   </si>
 </sst>
 </file>
@@ -90,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -104,6 +125,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -119,6 +163,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -126,61 +192,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,17 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,30 +256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,31 +284,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,145 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +469,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,13 +514,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,57 +561,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,19 +587,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,112 +608,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,10 +1039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -1029,10 +1050,11 @@
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="9.22222222222222" customWidth="1"/>
-    <col min="11" max="11" width="21.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="62.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,13 +1088,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1099,15 +1124,18 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1134,15 +1162,18 @@
         <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1169,15 +1200,18 @@
         <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1204,15 +1238,18 @@
         <v>80</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2005</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1239,15 +1276,18 @@
         <v>100</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2006</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1274,7 +1314,10 @@
         <v>120</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23256" windowHeight="9647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,8 +112,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -134,6 +134,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -148,31 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +195,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -193,23 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +225,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,37 +240,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,13 +278,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,169 +386,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,24 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -514,17 +496,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +527,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,11 +563,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9647"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>1001,1002</t>
   </si>
   <si>
-    <t>[{"type": "HP","value": 100},{"type": "ATTACK","value": 70}]</t>
+    <t>[{"type": "HP","value": 1000},{"type": "ATTACK","value": 70}]</t>
   </si>
   <si>
     <t>土狗</t>
@@ -67,7 +67,7 @@
     <t>1003,1004</t>
   </si>
   <si>
-    <t>[{"type": "HP","value": 150},{"type": "ATTACK","value": 80}]</t>
+    <t>[{"type": "HP","value": 1500},{"type": "ATTACK","value": 80}]</t>
   </si>
   <si>
     <t>豺狼</t>
@@ -76,7 +76,7 @@
     <t>1005,1006</t>
   </si>
   <si>
-    <t>[{"type": "HP","value": 200},{"type": "ATTACK","value": 90}]</t>
+    <t>[{"type": "HP","value": 2000},{"type": "ATTACK","value": 90}]</t>
   </si>
   <si>
     <t>猎豹</t>
@@ -85,7 +85,7 @@
     <t>1007,1008</t>
   </si>
   <si>
-    <t>[{"type": "HP","value": 250},{"type": "ATTACK","value": 100}]</t>
+    <t>[{"type": "HP","value": 2500},{"type": "ATTACK","value": 100}]</t>
   </si>
   <si>
     <t>猛虎</t>
@@ -94,7 +94,7 @@
     <t>1009,1010</t>
   </si>
   <si>
-    <t>[{"type": "HP","value": 300},{"type": "ATTACK","value": 110}]</t>
+    <t>[{"type": "HP","value": 3000},{"type": "ATTACK","value": 110}]</t>
   </si>
   <si>
     <t>雄狮</t>
@@ -103,7 +103,7 @@
     <t>2001</t>
   </si>
   <si>
-    <t>[{"type": "HP","value": 350},{"type": "ATTACK","value": 120}]</t>
+    <t>[{"type": "HP","value": 3500},{"type": "ATTACK","value": 120}]</t>
   </si>
 </sst>
 </file>
@@ -126,6 +126,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -142,6 +157,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -149,15 +172,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,36 +224,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -208,6 +240,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -215,55 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,13 +278,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,13 +332,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,19 +380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,102 +416,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,19 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,15 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,11 +489,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +535,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,40 +569,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -1112,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="H3">
         <v>150</v>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="H5">
         <v>250</v>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="H6">
         <v>300</v>
@@ -1302,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="H7">
         <v>350</v>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="17351" windowHeight="7787"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,8 +113,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,38 +126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,9 +141,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +164,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,33 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,29 +233,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,31 +278,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,19 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,127 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,45 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,22 +496,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,16 +534,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,8 +1041,8 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17351" windowHeight="7787"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>defense</t>
   </si>
   <si>
-    <t>dropObject</t>
+    <t>dropObjectData</t>
   </si>
   <si>
     <t>attrs</t>
@@ -55,55 +55,55 @@
     <t>野猪</t>
   </si>
   <si>
-    <t>1001,1002</t>
-  </si>
-  <si>
-    <t>[{"type": "HP","value": 1000},{"type": "ATTACK","value": 70}]</t>
+    <t>[{"itemId": 1001,"quantity": 1,"chance": 0.5}]</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": 1000},{"type": "MP","value": 50},{"type": "DEFENSE_LOWER","value": 10},{"type": "DEFENSE_UPPER","value": 12},{"type": "ATTACK_LOWER","value": 20},{"type": "ATTACK_UPPER","value": 25}]</t>
   </si>
   <si>
     <t>土狗</t>
   </si>
   <si>
-    <t>1003,1004</t>
-  </si>
-  <si>
-    <t>[{"type": "HP","value": 1500},{"type": "ATTACK","value": 80}]</t>
+    <t>[{"itemId": 1003,"quantity": 1,"chance": 0.5}]</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": 1500},{"type": "MP","value": 50},{"type": "DEFENSE_LOWER","value": 10},{"type": "DEFENSE_UPPER","value": 12},{"type": "ATTACK_LOWER","value": 20},{"type": "ATTACK_UPPER","value": 25}]</t>
   </si>
   <si>
     <t>豺狼</t>
   </si>
   <si>
-    <t>1005,1006</t>
-  </si>
-  <si>
-    <t>[{"type": "HP","value": 2000},{"type": "ATTACK","value": 90}]</t>
+    <t>[{"itemId": 1005,"quantity": 1,"chance": 0.5}]</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": 2000},{"type": "MP","value": 50},{"type": "DEFENSE_LOWER","value": 10},{"type": "DEFENSE_UPPER","value": 12},{"type": "ATTACK_LOWER","value": 20},{"type": "ATTACK_UPPER","value": 25}]</t>
   </si>
   <si>
     <t>猎豹</t>
   </si>
   <si>
-    <t>1007,1008</t>
-  </si>
-  <si>
-    <t>[{"type": "HP","value": 2500},{"type": "ATTACK","value": 100}]</t>
+    <t>[{"itemId": 1006,"quantity": 2,"chance": 0.5}]</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": 2500},{"type": "MP","value": 50},{"type": "DEFENSE_LOWER","value": 10},{"type": "DEFENSE_UPPER","value": 12},{"type": "ATTACK_LOWER","value": 20},{"type": "ATTACK_UPPER","value": 25}]</t>
   </si>
   <si>
     <t>猛虎</t>
   </si>
   <si>
-    <t>1009,1010</t>
-  </si>
-  <si>
-    <t>[{"type": "HP","value": 3000},{"type": "ATTACK","value": 110}]</t>
+    <t>[{"itemId": 1009,"quantity": 1,"chance": 0.5}]</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": 3000},{"type": "MP","value": 50},{"type": "DEFENSE_LOWER","value": 10},{"type": "DEFENSE_UPPER","value": 12},{"type": "ATTACK_LOWER","value": 20},{"type": "ATTACK_UPPER","value": 25}]</t>
   </si>
   <si>
     <t>雄狮</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>[{"type": "HP","value": 3500},{"type": "ATTACK","value": 120}]</t>
+    <t>[{"itemId": 2001,"quantity": 10,"chance": 0.5}]</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": 3500},{"type": "MP","value": 50},{"type": "DEFENSE_LOWER","value": 10},{"type": "DEFENSE_UPPER","value": 12},{"type": "ATTACK_LOWER","value": 20},{"type": "ATTACK_UPPER","value": 25}]</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,135 +268,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,6 +278,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,144 +386,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,12 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +481,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -535,26 +535,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,8 +1041,8 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -1050,8 +1050,9 @@
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="9.22222222222222" customWidth="1"/>
-    <col min="11" max="11" width="14.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="62.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="52" customWidth="1"/>
+    <col min="12" max="12" width="109.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>monsterId</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>defense</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
   <si>
     <t>dropObjectData</t>
@@ -111,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,6 +130,135 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,135 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,13 +281,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,139 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,54 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,11 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +522,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -575,145 +578,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,10 +1042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -1050,12 +1053,12 @@
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="9.22222222222222" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="52" customWidth="1"/>
-    <col min="12" max="12" width="109.888888888889" customWidth="1"/>
+    <col min="10" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="52" customWidth="1"/>
+    <col min="13" max="13" width="109.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1092,13 +1095,16 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1124,19 +1130,22 @@
       <c r="J2">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1162,19 +1171,22 @@
       <c r="J3">
         <v>40</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3">
+        <v>150</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1200,19 +1212,22 @@
       <c r="J4">
         <v>60</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1238,19 +1253,22 @@
       <c r="J5">
         <v>80</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5">
+        <v>250</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2005</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1276,19 +1294,22 @@
       <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2006</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1314,11 +1335,14 @@
       <c r="J7">
         <v>120</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K7">
+        <v>350</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>monsterId</t>
   </si>
@@ -25,6 +25,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>mapId</t>
   </si>
   <si>
@@ -107,6 +110,15 @@
   </si>
   <si>
     <t>[{"type": "HP","value": 3500},{"type": "MP","value": 50},{"type": "DEFENSE_LOWER","value": 10},{"type": "DEFENSE_UPPER","value": 12},{"type": "ATTACK_LOWER","value": 20},{"type": "ATTACK_UPPER","value": 25}]</t>
+  </si>
+  <si>
+    <t>野猪怪</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>土狗怪</t>
   </si>
 </sst>
 </file>
@@ -115,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -129,51 +141,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,13 +163,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -202,41 +222,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,9 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +268,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +484,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,21 +523,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -523,32 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,11 +563,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,23 +1054,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="9.22222222222222" customWidth="1"/>
-    <col min="10" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="52" customWidth="1"/>
-    <col min="13" max="13" width="109.888888888889" customWidth="1"/>
+    <col min="3" max="4" width="9.22222222222222" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="52" customWidth="1"/>
+    <col min="14" max="14" width="109.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,251 +1110,360 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2001</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>1000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>50</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>100</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2001</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>1500</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>150</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>40</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>150</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>2002</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>2000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>200</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>150</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>60</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>200</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>2002</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>2500</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>250</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>200</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>80</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>250</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2005</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>2003</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>3000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>300</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>250</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>100</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>300</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2006</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>2003</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>3500</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>350</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>300</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>120</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>350</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>3001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3001</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1500</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>120</v>
+      </c>
+      <c r="L8">
+        <v>500</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>3002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3001</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1500</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9">
+        <v>120</v>
+      </c>
+      <c r="L9">
+        <v>600</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>monsterId</t>
   </si>
@@ -46,6 +46,9 @@
     <t>attack</t>
   </si>
   <si>
+    <t>rebornTime</t>
+  </si>
+  <si>
     <t>defense</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>土狗怪</t>
   </si>
 </sst>
 </file>
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,6 +140,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -147,9 +200,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,75 +253,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -247,38 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,37 +293,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,127 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,17 +484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,21 +498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +520,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,16 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,16 +575,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,23 +1054,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
     <col min="3" max="4" width="9.22222222222222" customWidth="1"/>
-    <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="52" customWidth="1"/>
-    <col min="14" max="14" width="109.888888888889" customWidth="1"/>
+    <col min="11" max="11" width="17.8888888888889" customWidth="1"/>
+    <col min="12" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="52" customWidth="1"/>
+    <col min="15" max="15" width="109.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,13 +1114,16 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1146,24 +1150,27 @@
         <v>50</v>
       </c>
       <c r="K2">
+        <v>200000</v>
+      </c>
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>100</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1190,24 +1197,27 @@
         <v>100</v>
       </c>
       <c r="K3">
+        <v>200000</v>
+      </c>
+      <c r="L3">
         <v>40</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>150</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1234,24 +1244,27 @@
         <v>150</v>
       </c>
       <c r="K4">
+        <v>200000</v>
+      </c>
+      <c r="L4">
         <v>60</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>200</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1278,24 +1291,27 @@
         <v>200</v>
       </c>
       <c r="K5">
+        <v>200000</v>
+      </c>
+      <c r="L5">
         <v>80</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>250</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2005</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1322,24 +1338,27 @@
         <v>250</v>
       </c>
       <c r="K6">
+        <v>200000</v>
+      </c>
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>300</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2006</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1366,30 +1385,33 @@
         <v>300</v>
       </c>
       <c r="K7">
+        <v>200000</v>
+      </c>
+      <c r="L7">
         <v>120</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>350</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>3001</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>3001</v>
@@ -1410,60 +1432,19 @@
         <v>300</v>
       </c>
       <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
         <v>120</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>500</v>
       </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
       <c r="N8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>3002</v>
-      </c>
-      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3001</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1500</v>
-      </c>
-      <c r="I9">
-        <v>200</v>
-      </c>
-      <c r="J9">
-        <v>300</v>
-      </c>
-      <c r="K9">
-        <v>120</v>
-      </c>
-      <c r="L9">
-        <v>600</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
+      <c r="O8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -140,100 +140,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,9 +228,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,15 +277,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,127 +293,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,55 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +484,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,17 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,8 +529,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,20 +563,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,25 +584,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="A1:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
@@ -1150,7 +1150,7 @@
         <v>50</v>
       </c>
       <c r="K2">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L2">
         <v>20</v>
@@ -1197,7 +1197,7 @@
         <v>100</v>
       </c>
       <c r="K3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L3">
         <v>40</v>
@@ -1244,7 +1244,7 @@
         <v>150</v>
       </c>
       <c r="K4">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L4">
         <v>60</v>
@@ -1291,7 +1291,7 @@
         <v>200</v>
       </c>
       <c r="K5">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L5">
         <v>80</v>
@@ -1338,7 +1338,7 @@
         <v>250</v>
       </c>
       <c r="K6">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -1385,7 +1385,7 @@
         <v>300</v>
       </c>
       <c r="K7">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="L7">
         <v>120</v>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>monsterId</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>地狱一怪</t>
   </si>
 </sst>
 </file>
@@ -126,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,80 +144,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,57 +257,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +296,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,157 +434,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,16 +491,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,29 +531,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,22 +574,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,145 +593,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,13 +1057,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:O8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
@@ -1447,6 +1450,146 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>5001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5001</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3000</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>5002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5002</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3500</v>
+      </c>
+      <c r="I10">
+        <v>350</v>
+      </c>
+      <c r="J10">
+        <v>450</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>5003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5003</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4000</v>
+      </c>
+      <c r="I11">
+        <v>400</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>5004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5004</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4500</v>
+      </c>
+      <c r="I12">
+        <v>450</v>
+      </c>
+      <c r="J12">
+        <v>550</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/resource/MonsterResource.xlsx
+++ b/src/main/resources/resource/MonsterResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>monsterId</t>
   </si>
@@ -31,6 +31,9 @@
     <t>mapId</t>
   </si>
   <si>
+    <t>isInit</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -115,10 +118,13 @@
     <t>[{"type": "HP","value": 3500},{"type": "MP","value": 50},{"type": "DEFENSE_LOWER","value": 10},{"type": "DEFENSE_UPPER","value": 12},{"type": "ATTACK_LOWER","value": 20},{"type": "ATTACK_UPPER","value": 25}]</t>
   </si>
   <si>
-    <t>野猪怪</t>
+    <t>野猪怪一</t>
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>野猪怪二</t>
   </si>
   <si>
     <t>地狱一怪</t>
@@ -130,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,6 +146,96 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,16 +254,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,111 +286,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,25 +497,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +528,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -541,16 +556,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,25 +593,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +611,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,10 +1063,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1068,13 +1074,13 @@
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
     <col min="3" max="4" width="9.22222222222222" customWidth="1"/>
-    <col min="11" max="11" width="17.8888888888889" customWidth="1"/>
-    <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="52" customWidth="1"/>
-    <col min="15" max="15" width="109.888888888889" customWidth="1"/>
+    <col min="12" max="12" width="17.8888888888889" customWidth="1"/>
+    <col min="13" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="52" customWidth="1"/>
+    <col min="16" max="16" width="109.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1120,13 +1126,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1137,43 +1146,46 @@
       <c r="E2">
         <v>2001</v>
       </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>1000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>50</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>20000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>100</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1184,43 +1196,46 @@
       <c r="E3">
         <v>2001</v>
       </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>1500</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>150</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>20000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>40</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>150</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1231,43 +1246,46 @@
       <c r="E4">
         <v>2002</v>
       </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>2000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>200</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>150</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>20000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>60</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>200</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1278,43 +1296,46 @@
       <c r="E5">
         <v>2002</v>
       </c>
-      <c r="F5">
-        <v>2</v>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>2500</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>250</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>200</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>20000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>80</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>250</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2005</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1325,43 +1346,46 @@
       <c r="E6">
         <v>2003</v>
       </c>
-      <c r="F6">
-        <v>2</v>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>3000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>300</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>250</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>20000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>300</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2006</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1372,222 +1396,338 @@
       <c r="E7">
         <v>2003</v>
       </c>
-      <c r="F7">
-        <v>2</v>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>3500</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>350</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>300</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>120</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>350</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>3001</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>3001</v>
       </c>
-      <c r="F8">
-        <v>2</v>
+      <c r="F8" t="b">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>1500</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>200</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>300</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>120</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>500</v>
       </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:16">
       <c r="A9">
+        <v>3002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3001</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+      <c r="K9">
+        <v>300</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>120</v>
+      </c>
+      <c r="N9">
+        <v>500</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>5001</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5001</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3000</v>
+      </c>
+      <c r="J10">
+        <v>300</v>
+      </c>
+      <c r="K10">
+        <v>400</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>120</v>
+      </c>
+      <c r="N10">
+        <v>500</v>
+      </c>
+      <c r="O10" t="s">
         <v>35</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>5001</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>3000</v>
-      </c>
-      <c r="I9">
-        <v>300</v>
-      </c>
-      <c r="J9">
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>5002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5002</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3500</v>
+      </c>
+      <c r="J11">
+        <v>350</v>
+      </c>
+      <c r="K11">
+        <v>450</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+      <c r="N11">
+        <v>500</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>5003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5003</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>4000</v>
+      </c>
+      <c r="J12">
         <v>400</v>
       </c>
-      <c r="K9">
+      <c r="K12">
+        <v>500</v>
+      </c>
+      <c r="L12">
         <v>-1</v>
       </c>
+      <c r="M12">
+        <v>120</v>
+      </c>
+      <c r="N12">
+        <v>500</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>5002</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>5004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5004</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4500</v>
+      </c>
+      <c r="J13">
+        <v>450</v>
+      </c>
+      <c r="K13">
+        <v>550</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>120</v>
+      </c>
+      <c r="N13">
+        <v>500</v>
+      </c>
+      <c r="O13" t="s">
         <v>35</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>5002</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>3500</v>
-      </c>
-      <c r="I10">
-        <v>350</v>
-      </c>
-      <c r="J10">
-        <v>450</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>5003</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>5003</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>4000</v>
-      </c>
-      <c r="I11">
-        <v>400</v>
-      </c>
-      <c r="J11">
-        <v>500</v>
-      </c>
-      <c r="K11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>5004</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>5004</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>4500</v>
-      </c>
-      <c r="I12">
-        <v>450</v>
-      </c>
-      <c r="J12">
-        <v>550</v>
-      </c>
-      <c r="K12">
-        <v>-1</v>
+      <c r="P13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
